--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="H2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="I2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="J2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N2">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O2">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P2">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q2">
-        <v>6.984488604500001</v>
+        <v>0.939589750747</v>
       </c>
       <c r="R2">
-        <v>62.8603974405</v>
+        <v>8.456307756723</v>
       </c>
       <c r="S2">
-        <v>0.0006754028181709699</v>
+        <v>0.0001071708513697268</v>
       </c>
       <c r="T2">
-        <v>0.0006754028181709699</v>
+        <v>0.0001071708513697268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="H3">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="I3">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="J3">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N3">
         <v>15.529133</v>
       </c>
       <c r="O3">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P3">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q3">
-        <v>3.440263733747222</v>
+        <v>5.026775175722334</v>
       </c>
       <c r="R3">
-        <v>30.962373603725</v>
+        <v>45.240976581501</v>
       </c>
       <c r="S3">
-        <v>0.0003326748674952694</v>
+        <v>0.0005733606340406226</v>
       </c>
       <c r="T3">
-        <v>0.0003326748674952694</v>
+        <v>0.0005733606340406226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="H4">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="I4">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="J4">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N4">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O4">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P4">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q4">
-        <v>2.706722445616667</v>
+        <v>4.535180908147</v>
       </c>
       <c r="R4">
-        <v>24.36050201055</v>
+        <v>40.816628173323</v>
       </c>
       <c r="S4">
-        <v>0.0002617411340034661</v>
+        <v>0.000517288740809944</v>
       </c>
       <c r="T4">
-        <v>0.0002617411340034661</v>
+        <v>0.000517288740809944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="H5">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="I5">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="J5">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N5">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O5">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P5">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q5">
-        <v>43.90609542574167</v>
+        <v>58.60667080092868</v>
       </c>
       <c r="R5">
-        <v>395.154858831675</v>
+        <v>527.460037208358</v>
       </c>
       <c r="S5">
-        <v>0.004245736841251861</v>
+        <v>0.006684754490656503</v>
       </c>
       <c r="T5">
-        <v>0.004245736841251861</v>
+        <v>0.006684754490656503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>257.478072</v>
       </c>
       <c r="I6">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="J6">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N6">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O6">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P6">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q6">
-        <v>901.9611349003201</v>
+        <v>83.041226999272</v>
       </c>
       <c r="R6">
-        <v>8117.65021410288</v>
+        <v>747.371042993448</v>
       </c>
       <c r="S6">
-        <v>0.08721999947138183</v>
+        <v>0.009471792331944121</v>
       </c>
       <c r="T6">
-        <v>0.08721999947138183</v>
+        <v>0.009471792331944121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>257.478072</v>
       </c>
       <c r="I7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="J7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N7">
         <v>15.529133</v>
       </c>
       <c r="O7">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P7">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q7">
-        <v>444.2679138523973</v>
+        <v>444.2679138523974</v>
       </c>
       <c r="R7">
         <v>3998.411224671576</v>
       </c>
       <c r="S7">
-        <v>0.04296088347048384</v>
+        <v>0.05067378664567227</v>
       </c>
       <c r="T7">
-        <v>0.04296088347048384</v>
+        <v>0.05067378664567226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>257.478072</v>
       </c>
       <c r="I8">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="J8">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N8">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O8">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P8">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q8">
-        <v>349.540043251792</v>
+        <v>400.820663461672</v>
       </c>
       <c r="R8">
-        <v>3145.860389266128</v>
+        <v>3607.385971155048</v>
       </c>
       <c r="S8">
-        <v>0.03380066081341446</v>
+        <v>0.0457181357242506</v>
       </c>
       <c r="T8">
-        <v>0.03380066081341446</v>
+        <v>0.04571813572425059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>257.478072</v>
       </c>
       <c r="I9">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="J9">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N9">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O9">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P9">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q9">
-        <v>5669.934321852712</v>
+        <v>5179.67533147558</v>
       </c>
       <c r="R9">
-        <v>51029.4088966744</v>
+        <v>46617.07798328021</v>
       </c>
       <c r="S9">
-        <v>0.5482848976740181</v>
+        <v>0.59080062830792</v>
       </c>
       <c r="T9">
-        <v>0.5482848976740181</v>
+        <v>0.59080062830792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="H10">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="I10">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="J10">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N10">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O10">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P10">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q10">
-        <v>357.2819446411601</v>
+        <v>35.07298898828034</v>
       </c>
       <c r="R10">
-        <v>3215.53750177044</v>
+        <v>315.656900894523</v>
       </c>
       <c r="S10">
-        <v>0.03454930574827941</v>
+        <v>0.00400047157492587</v>
       </c>
       <c r="T10">
-        <v>0.03454930574827941</v>
+        <v>0.004000471574925869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="H11">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="I11">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="J11">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N11">
         <v>15.529133</v>
       </c>
       <c r="O11">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P11">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q11">
-        <v>175.9819775609265</v>
+        <v>187.6393715922335</v>
       </c>
       <c r="R11">
-        <v>1583.837798048338</v>
+        <v>1688.754344330101</v>
       </c>
       <c r="S11">
-        <v>0.01701752702629813</v>
+        <v>0.02140239523476347</v>
       </c>
       <c r="T11">
-        <v>0.01701752702629813</v>
+        <v>0.02140239523476347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="H12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="I12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="J12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N12">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O12">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P12">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q12">
-        <v>138.4586780413293</v>
+        <v>169.2891497856803</v>
       </c>
       <c r="R12">
-        <v>1246.128102371964</v>
+        <v>1523.602348071123</v>
       </c>
       <c r="S12">
-        <v>0.01338900908064912</v>
+        <v>0.01930934463234032</v>
       </c>
       <c r="T12">
-        <v>0.01338900908064912</v>
+        <v>0.01930934463234032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="H13">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="I13">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="J13">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N13">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O13">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P13">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q13">
-        <v>2245.956152781539</v>
+        <v>2187.668733089685</v>
       </c>
       <c r="R13">
-        <v>20213.60537503385</v>
+        <v>19689.01859780716</v>
       </c>
       <c r="S13">
-        <v>0.2171848507419354</v>
+        <v>0.2495283930606474</v>
       </c>
       <c r="T13">
-        <v>0.2171848507419354</v>
+        <v>0.2495283930606473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="H14">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="I14">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="J14">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N14">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O14">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P14">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q14">
-        <v>0.09790001782000002</v>
+        <v>0.144525326716</v>
       </c>
       <c r="R14">
-        <v>0.8811001603800002</v>
+        <v>1.300727940444</v>
       </c>
       <c r="S14">
-        <v>9.466970551289155E-06</v>
+        <v>1.648475017562455E-05</v>
       </c>
       <c r="T14">
-        <v>9.466970551289153E-06</v>
+        <v>1.648475017562455E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="H15">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="I15">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="J15">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N15">
         <v>15.529133</v>
       </c>
       <c r="O15">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P15">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q15">
-        <v>0.04822140888344445</v>
+        <v>0.7732058848253333</v>
       </c>
       <c r="R15">
-        <v>0.433992679951</v>
+        <v>6.958852963428</v>
       </c>
       <c r="S15">
-        <v>4.663029364106828E-06</v>
+        <v>8.819288726269502E-05</v>
       </c>
       <c r="T15">
-        <v>4.663029364106828E-06</v>
+        <v>8.819288726269502E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="H16">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="I16">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="J16">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N16">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O16">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P16">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q16">
-        <v>0.03793952437533334</v>
+        <v>0.6975900939159999</v>
       </c>
       <c r="R16">
-        <v>0.341455719378</v>
+        <v>6.278310845243999</v>
       </c>
       <c r="S16">
-        <v>3.668767054277516E-06</v>
+        <v>7.956805000547106E-05</v>
       </c>
       <c r="T16">
-        <v>3.668767054277515E-06</v>
+        <v>7.956805000547106E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="H17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="I17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="J17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N17">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O17">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P17">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q17">
-        <v>0.6154219396703334</v>
+        <v>9.014730352802665</v>
       </c>
       <c r="R17">
-        <v>5.538797457033001</v>
+        <v>81.132573175224</v>
       </c>
       <c r="S17">
-        <v>5.951154564842239E-05</v>
+        <v>0.00102823208321535</v>
       </c>
       <c r="T17">
-        <v>5.951154564842239E-05</v>
+        <v>0.00102823208321535</v>
       </c>
     </row>
   </sheetData>
